--- a/Controle_Lote_Validade.xlsx
+++ b/Controle_Lote_Validade.xlsx
@@ -10,11 +10,6 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Lotes!$A$1:$D$390</definedName>
   </definedNames>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="FJAx3KXiBjpbANDTDA+YJe4R1y2V7XwHDtrCmeai0t4="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 

--- a/Controle_Lote_Validade.xlsx
+++ b/Controle_Lote_Validade.xlsx
@@ -3088,7 +3088,7 @@
     <t>VELA PERFUMADA MANDARINA CEYLON ARABESC - 210G</t>
   </si>
   <si>
-    <t>25/5245</t>
+    <t>teste</t>
   </si>
   <si>
     <t>102016190</t>
@@ -9006,7 +9006,7 @@
       <c r="B368" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="C368" s="8" t="s">
         <v>1024</v>
       </c>
       <c r="D368" s="5" t="s">

--- a/Controle_Lote_Validade.xlsx
+++ b/Controle_Lote_Validade.xlsx
@@ -3088,7 +3088,7 @@
     <t>VELA PERFUMADA MANDARINA CEYLON ARABESC - 210G</t>
   </si>
   <si>
-    <t>teste</t>
+    <t>25/5245</t>
   </si>
   <si>
     <t>102016190</t>
@@ -9006,7 +9006,7 @@
       <c r="B368" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="C368" s="8" t="s">
+      <c r="C368" s="5" t="s">
         <v>1024</v>
       </c>
       <c r="D368" s="5" t="s">

--- a/Controle_Lote_Validade.xlsx
+++ b/Controle_Lote_Validade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1104">
   <si>
     <t>Código do Produto</t>
   </si>
@@ -634,7 +634,7 @@
     <t>DIFUSOR DE PERFUME LIMONCELLO LENVIE &amp; BACIO DI LATTE - 130ML</t>
   </si>
   <si>
-    <t>C1911</t>
+    <t>J2306</t>
   </si>
   <si>
     <t>105040200</t>
@@ -3316,7 +3316,7 @@
     <t>AROMATIZADOR ELETRICO E OLEO CONCENTRADO ROSEWOOD -20ML</t>
   </si>
   <si>
-    <t>LEN120.0002</t>
+    <t>LEN120.0002teste2</t>
   </si>
   <si>
     <t>Código item</t>
@@ -4899,11 +4899,14 @@
       <c r="B69" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>203</v>
+      <c r="D69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
@@ -5227,6 +5230,9 @@
       </c>
       <c r="D91" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
